--- a/806209426/localisation/excel/bramja_ideas_l_german.xlsx
+++ b/806209426/localisation/excel/bramja_ideas_l_german.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,157 +28,157 @@
     <t xml:space="preserve"> SOV_war_recovery_short:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§RInitial Recovery from the Great Patriotic War§!</t>
+    <t xml:space="preserve">§R§R Erste Erholung vom Großen Vaterländischen Krieg §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SOV_war_recovery_short_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Efforts to recover from the recent invasion is requiring a significant amount of our resources. While at the same time our people willingness to fight has been stretched to the limit, a new invasion of our Homeland will find even tougher resistance as the last one, as the Red Army and the people never have been more expereienced with war and the lay of our lands.</t>
+    <t xml:space="preserve">Die Bemühungen, sich von der jüngsten Invasion zu erholen, erfordern einen erheblichen Teil unserer Ressourcen. Während gleichzeitig die Kampfbereitschaft unseres Volkes bis zum Äußersten strapaziert wurde, wird eine erneute Invasion unserer Heimat auf einen noch härteren Widerstand stoßen als die letzte, da die Rote Armee und das Volk noch nie so viel Erfahrung mit dem Krieg und der Beschaffenheit unseres Landes gemacht haben.</t>
   </si>
   <si>
     <t xml:space="preserve"> SOV_war_recovery_long:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§ODevastion wrought by Axis invasion§!</t>
+    <t xml:space="preserve">§O§O Verwüstung durch die Invasion der Achsenmächte §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> officers_purged_EE:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Purge of Reactionaries in the Army</t>
+    <t xml:space="preserve">Ausmerzung der Reaktionäre in der Armee</t>
   </si>
   <si>
     <t xml:space="preserve"> officers_purged_EE_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Our army has to be purged and reformed to relieve it from the defeated reactionary elements! This will take some time and weaken our fighting capabilities for the time being.</t>
+    <t xml:space="preserve">Unsere Armee muss gesäubert und reformiert werden, um sie von den besiegten reaktionären Elementen zu befreien! Dies wird einige Zeit in Anspruch nehmen und unsere Kampfkraft vorläufig schwächen.</t>
   </si>
   <si>
     <t xml:space="preserve"> denazification:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§RIndustrial Disarmament &amp; Denazification§!</t>
+    <t xml:space="preserve">§R§R Industrielle Entwaffnung und Entnazifizierung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> denazification_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The occupying powers are extracting large amounts of our industrial materiel &amp; other resources, the lion's share going to the Soviet Union. This is both meant as as a form of war reparations and to neuter our abillity to wage war in the future. Furthermore a broad policy aimed at cleansing the influence of Nazism from every level of society has been instituted.\nVae Victis</t>
+    <t xml:space="preserve">Die Besatzungsmächte entziehen uns große Mengen an Industriegütern und anderen Ressourcen, wobei der Löwenanteil an die Sowjetunion geht. Dies ist sowohl als eine Form der Kriegsreparationen gedacht als auch um unsere Fähigkeit, in Zukunft Krieg zu führen, zu kastrieren. Darüber hinaus wurde eine umfassende Politik eingeleitet, die darauf abzielt, den Einfluss des Nationalsozialismus auf allen Ebenen der Gesellschaft zu beseitigen.\nVae Victis</t>
   </si>
   <si>
     <t xml:space="preserve"> Stalinisation_1:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Installation of a Stalinist regime</t>
+    <t xml:space="preserve">Einsetzung eines stalinistischen Regimes</t>
   </si>
   <si>
     <t xml:space="preserve"> elected_officers:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Elected officers</t>
+    <t xml:space="preserve">Gewählte Offiziere</t>
   </si>
   <si>
     <t xml:space="preserve"> Reforms_welfare_state:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Promises of a welfare state</t>
+    <t xml:space="preserve">Versprechen eines Wohlfahrtsstaates</t>
   </si>
   <si>
     <t xml:space="preserve"> PER_unstable_monarchy:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§OThe Headless Shahzadeh§!</t>
+    <t xml:space="preserve">§O§O Der kopflose Shahzadeh §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> PER_unstable_monarchy_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Having been invaded and occupied twice in a short period of time, by forces propagating three opposing ideologies, which all contrast significantly with the local ways, have left [From.GetName] a nation in confusion and lost. Groups representing all these different ideologies gained more and more influence in the country as it was dragged deeper into the whirlpool, without a captain on board. Even though the legitimate Shah, Reza Pahlavi, was reinstated as a consequence of the most recent invasion, the stablity his return would bring normally, is nullified by the fact that he is currently imprisoned by the Allies, at an unknown location. Until he returns to his realm and restablishes order, things won't get any better...\n§Y Rumor has it though that [PER.GetName]s new protectors have located his whereabouts...§Y </t>
+    <t xml:space="preserve">Die zweimalige Invasion und Besetzung innerhalb kurzer Zeit durch Kräfte, die drei gegensätzliche Ideologien propagieren, die alle in erheblichem Gegensatz zu den örtlichen Gepflogenheiten stehen, haben [From.GetName] eine verwirrte und verlorene Nation hinterlassen. Gruppen, die all diese unterschiedlichen Ideologien vertraten, gewannen immer mehr Einfluss im Land, das immer tiefer in den Strudel gezogen wurde, ohne einen Kapitän an Bord zu haben. Obwohl der rechtmäßige Schah, Reza Pahlavi, als Folge der jüngsten Invasion wieder eingesetzt wurde, wird die Stabilität, die seine Rückkehr normalerweise bringen würde, durch die Tatsache zunichte gemacht, dass er derzeit von den Alliierten an einem unbekannten Ort gefangen gehalten wird. Solange er nicht in sein Reich zurückkehrt und die Ordnung wiederherstellt, werden die Dinge nicht besser werden...\n§Y§Y Gerüchten zufolge haben [PER.GetName]s neue Beschützer seinen Aufenthaltsort ausfindig gemacht...§Y§Y  </t>
   </si>
   <si>
     <t xml:space="preserve"> SAF_greyshirts_no_Smuts:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§ODie Natiosanle Rebellie§!</t>
+    <t xml:space="preserve">§O§O Die Natiosanle Rebellie §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SAF_greyshirts_no_Smuts_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">The maintainance of pro-British policy by the incumbent government, in spite of imminent defeat has led to §Oopen rebellion of anti-British groups in the country§!. It is only a matter of time before this escalates...</t>
+    <t xml:space="preserve">Die Beibehaltung der pro-britischen Politik durch die amtierende Regierung trotz der drohenden Niederlage hat zu §O§O offener Rebellion anti-britischer Gruppen im Land geführt §!§! . Es ist nur eine Frage der Zeit, bis dies eskaliert...</t>
   </si>
   <si>
     <t xml:space="preserve"> SAF_greyshirts_takeover:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§ONasionaalgesinde Magsgreep§!</t>
+    <t xml:space="preserve">§O§O Nasionaalgesinde Magsgreep §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SAF_greyshirts_takeover_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-British forces have succeeded in taking over power and are now consolidating their power, supported by their new \"allies\". The new regime, still unstable and facing resistance all across, is very reluctant to enter into any wars for the time being.</t>
+    <t xml:space="preserve">Den antibritischen Kräften ist es gelungen, die Macht zu übernehmen, und sie sind nun dabei, ihre Macht zu konsolidieren, unterstützt von ihren neuen "Verbündeten". Das neue Regime, das noch instabil ist und überall auf Widerstand stößt, ist vorerst sehr zurückhaltend, wenn es darum geht, Kriege zu führen.</t>
   </si>
   <si>
     <t xml:space="preserve"> SAF_strong_apartheid:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§OUnrestrained Apartheid Policies§!</t>
+    <t xml:space="preserve">§O§O Ungehemmte Apartheid-Politik §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SAF_strong_apartheid_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Now unrestrained by internal opposition and with full support of their new overlords, the [FROM.GetFascistParty] has been implementing a very extensive policy of §R\"Apartheid\"§!. While this makes for a big pool of cheap labour for the dominant minority, rebellion brews and will require increased state surpression to control. The constant threat in tandem with the emigration of British [FROM.GetAdjective]s, made the remaining white population very used to violence and handling modern weapons. [From.GetNameDef] thus fields a small but extremely elite military force.</t>
+    <t xml:space="preserve">Die [FROM.GetFascistParty] hat nun, unbehelligt von interner Opposition und mit voller Unterstützung ihrer neuen Machthaber, eine sehr umfassende Politik der §R§R \"Apartheid\" §!§! . Während dies ein großes Reservoir an billigen Arbeitskräften für die herrschende Minderheit schafft, braut sich eine Rebellion zusammen, die nur durch verstärkte staatliche Unterdrückung unter Kontrolle gebracht werden kann. Die ständige Bedrohung in Verbindung mit der Auswanderung der britischen [FROM.GetAdjective]s hat die verbleibende weiße Bevölkerung an Gewalt und den Umgang mit modernen Waffen gewöhnt. Die [FROM.GetNameDef] stellt daher eine kleine, aber äußerst elitäre Streitmacht auf.</t>
   </si>
   <si>
     <t xml:space="preserve"> RK_GER_support:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Support from the Motherland</t>
+    <t xml:space="preserve">Unterstützung aus dem Mutterland</t>
   </si>
   <si>
     <t xml:space="preserve"> RK_GER_support_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">We have received more military and administratitive personnel from the Motherland to help stabilize our rule and clear out any remaining resistance in our rightful Lebensraum.</t>
+    <t xml:space="preserve">Wir haben mehr militärisches und administratives Personal aus dem Mutterland erhalten, um unsere Herrschaft zu stabilisieren und jeden verbleibenden Widerstand in unserem rechtmäßigen Lebensraum zu beseitigen.</t>
   </si>
   <si>
     <t xml:space="preserve"> SOV_desertion:0</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDesertion and emigration§!</t>
+    <t xml:space="preserve">§R§R Desertion und Auswanderung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SOV_desertion_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">As our situation remains dire, we suffer desertions from the army as well as loss of expertise and people, often returning to their newly independent home countries.\n§O As long as we have not reduced the effects of the Shattering of our Union or the German air raids, we will have a small amount of or army deserting every few months as breakaway states launch campaigns to attract them to their side.</t>
+    <t xml:space="preserve">Da unsere Lage nach wie vor katastrophal ist, leiden wir unter Desertionen aus der Armee sowie unter dem Verlust von Fachwissen und Menschen, die oft in ihre neuen unabhängigen Heimatländer zurückkehren.\n§O§O Solange wir die Auswirkungen der Zerschlagung unserer Union oder der deutschen Luftangriffe nicht gemildert haben, wird alle paar Monate ein kleiner Teil unserer Armee desertieren, da abtrünnige Staaten Kampagnen starten, um sie auf ihre Seite zu ziehen.</t>
   </si>
   <si>
     <t xml:space="preserve"> neutrality_civil_war_postWWII:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Isolated Civil War</t>
+    <t xml:space="preserve">Isolierter Bürgerkrieg</t>
   </si>
   <si>
     <t xml:space="preserve"> neutrality_civil_war_postWWII_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">As the world has been engulfed in a new world war, the warring parties avoid getting involved in internal conflicts unnecessarily</t>
+    <t xml:space="preserve">Da die Welt in einen neuen Weltkrieg verwickelt ist, vermeiden es die Kriegsparteien, sich unnötig in interne Konflikte einzumischen.</t>
   </si>
   <si>
     <t xml:space="preserve"> no_master_regime:0</t>
   </si>
   <si>
-    <t xml:space="preserve">Isolated Puppet</t>
+    <t xml:space="preserve">Isolierte Marionette</t>
   </si>
   <si>
     <t xml:space="preserve"> no_master_regime_desc:0</t>
   </si>
   <si>
-    <t xml:space="preserve">With the capitulation of our political benefactors, our state aparatus &amp; army is quickly collapsing. Not only our enemies, but our own people too seem to regard us as a mere puppet regime!</t>
+    <t xml:space="preserve">Mit der Kapitulation unserer politischen Wohltäter brechen unser Staatsapparat und unsere Armee schnell zusammen. Nicht nur unsere Feinde, sondern auch unser eigenes Volk scheint uns nur noch als Marionettenregime zu betrachten!</t>
   </si>
 </sst>
 </file>
@@ -260,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,10 +271,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -289,6 +285,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -296,8 +398,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -329,11 +431,11 @@
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v> SOV_war_recovery_short:0 "§RInitial Recovery from the Great Patriotic War§!"</v>
+        <v> SOV_war_recovery_short:0 "§R§R Erste Erholung vom Großen Vaterländischen Krieg §!§! "</v>
       </c>
       <c r="D2" s="1" t="str">
         <f aca="false">IF(ISBLANK(A2),"",C2)</f>
-        <v> SOV_war_recovery_short:0 "§RInitial Recovery from the Great Patriotic War§!"</v>
+        <v> SOV_war_recovery_short:0 "§R§R Erste Erholung vom Großen Vaterländischen Krieg §!§! "</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,11 +447,11 @@
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v> SOV_war_recovery_short_desc:0 "Efforts to recover from the recent invasion is requiring a significant amount of our resources. While at the same time our people willingness to fight has been stretched to the limit, a new invasion of our Homeland will find even tougher resistance as the last one, as the Red Army and the people never have been more expereienced with war and the lay of our lands."</v>
+        <v> SOV_war_recovery_short_desc:0 "Die Bemühungen, sich von der jüngsten Invasion zu erholen, erfordern einen erheblichen Teil unserer Ressourcen. Während gleichzeitig die Kampfbereitschaft unseres Volkes bis zum Äußersten strapaziert wurde, wird eine erneute Invasion unserer Heimat auf einen noch härteren Widerstand stoßen als die letzte, da die Rote Armee und das Volk noch nie so viel Erfahrung mit dem Krieg und der Beschaffenheit unseres Landes gemacht haben."</v>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IF(ISBLANK(A3),"",C3)</f>
-        <v> SOV_war_recovery_short_desc:0 "Efforts to recover from the recent invasion is requiring a significant amount of our resources. While at the same time our people willingness to fight has been stretched to the limit, a new invasion of our Homeland will find even tougher resistance as the last one, as the Red Army and the people never have been more expereienced with war and the lay of our lands."</v>
+        <v> SOV_war_recovery_short_desc:0 "Die Bemühungen, sich von der jüngsten Invasion zu erholen, erfordern einen erheblichen Teil unserer Ressourcen. Während gleichzeitig die Kampfbereitschaft unseres Volkes bis zum Äußersten strapaziert wurde, wird eine erneute Invasion unserer Heimat auf einen noch härteren Widerstand stoßen als die letzte, da die Rote Armee und das Volk noch nie so viel Erfahrung mit dem Krieg und der Beschaffenheit unseres Landes gemacht haben."</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,11 +463,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v> SOV_war_recovery_long:0 "§ODevastion wrought by Axis invasion§!"</v>
+        <v> SOV_war_recovery_long:0 "§O§O Verwüstung durch die Invasion der Achsenmächte §!§! "</v>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IF(ISBLANK(A4),"",C4)</f>
-        <v> SOV_war_recovery_long:0 "§ODevastion wrought by Axis invasion§!"</v>
+        <v> SOV_war_recovery_long:0 "§O§O Verwüstung durch die Invasion der Achsenmächte §!§! "</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,11 +479,11 @@
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v> officers_purged_EE:0 "Purge of Reactionaries in the Army"</v>
+        <v> officers_purged_EE:0 "Ausmerzung der Reaktionäre in der Armee"</v>
       </c>
       <c r="D5" s="1" t="str">
         <f aca="false">IF(ISBLANK(A5),"",C5)</f>
-        <v> officers_purged_EE:0 "Purge of Reactionaries in the Army"</v>
+        <v> officers_purged_EE:0 "Ausmerzung der Reaktionäre in der Armee"</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,11 +495,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v> officers_purged_EE_desc:0 "Our army has to be purged and reformed to relieve it from the defeated reactionary elements! This will take some time and weaken our fighting capabilities for the time being."</v>
+        <v> officers_purged_EE_desc:0 "Unsere Armee muss gesäubert und reformiert werden, um sie von den besiegten reaktionären Elementen zu befreien! Dies wird einige Zeit in Anspruch nehmen und unsere Kampfkraft vorläufig schwächen."</v>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IF(ISBLANK(A6),"",C6)</f>
-        <v> officers_purged_EE_desc:0 "Our army has to be purged and reformed to relieve it from the defeated reactionary elements! This will take some time and weaken our fighting capabilities for the time being."</v>
+        <v> officers_purged_EE_desc:0 "Unsere Armee muss gesäubert und reformiert werden, um sie von den besiegten reaktionären Elementen zu befreien! Dies wird einige Zeit in Anspruch nehmen und unsere Kampfkraft vorläufig schwächen."</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,11 +511,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> denazification:0 "§RIndustrial Disarmament &amp; Denazification§!"</v>
+        <v> denazification:0 "§R§R Industrielle Entwaffnung und Entnazifizierung §!§! "</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> denazification:0 "§RIndustrial Disarmament &amp; Denazification§!"</v>
+        <v> denazification:0 "§R§R Industrielle Entwaffnung und Entnazifizierung §!§! "</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,11 +527,11 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> denazification_desc:0 "The occupying powers are extracting large amounts of our industrial materiel &amp; other resources, the lion's share going to the Soviet Union. This is both meant as as a form of war reparations and to neuter our abillity to wage war in the future. Furthermore a broad policy aimed at cleansing the influence of Nazism from every level of society has been instituted.\nVae Victis"</v>
+        <v> denazification_desc:0 "Die Besatzungsmächte entziehen uns große Mengen an Industriegütern und anderen Ressourcen, wobei der Löwenanteil an die Sowjetunion geht. Dies ist sowohl als eine Form der Kriegsreparationen gedacht als auch um unsere Fähigkeit, in Zukunft Krieg zu führen, zu kastrieren. Darüber hinaus wurde eine umfassende Politik eingeleitet, die darauf abzielt, den Einfluss des Nationalsozialismus auf allen Ebenen der Gesellschaft zu beseitigen.\nVae Victis"</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v> denazification_desc:0 "The occupying powers are extracting large amounts of our industrial materiel &amp; other resources, the lion's share going to the Soviet Union. This is both meant as as a form of war reparations and to neuter our abillity to wage war in the future. Furthermore a broad policy aimed at cleansing the influence of Nazism from every level of society has been instituted.\nVae Victis"</v>
+        <v> denazification_desc:0 "Die Besatzungsmächte entziehen uns große Mengen an Industriegütern und anderen Ressourcen, wobei der Löwenanteil an die Sowjetunion geht. Dies ist sowohl als eine Form der Kriegsreparationen gedacht als auch um unsere Fähigkeit, in Zukunft Krieg zu führen, zu kastrieren. Darüber hinaus wurde eine umfassende Politik eingeleitet, die darauf abzielt, den Einfluss des Nationalsozialismus auf allen Ebenen der Gesellschaft zu beseitigen.\nVae Victis"</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -441,11 +543,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v> Stalinisation_1:0 "Installation of a Stalinist regime"</v>
+        <v> Stalinisation_1:0 "Einsetzung eines stalinistischen Regimes"</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IF(ISBLANK(A9),"",C9)</f>
-        <v> Stalinisation_1:0 "Installation of a Stalinist regime"</v>
+        <v> Stalinisation_1:0 "Einsetzung eines stalinistischen Regimes"</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,11 +559,11 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v> elected_officers:0 "Elected officers"</v>
+        <v> elected_officers:0 "Gewählte Offiziere"</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IF(ISBLANK(A10),"",C10)</f>
-        <v> elected_officers:0 "Elected officers"</v>
+        <v> elected_officers:0 "Gewählte Offiziere"</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,11 +575,11 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v> Reforms_welfare_state:0 "Promises of a welfare state"</v>
+        <v> Reforms_welfare_state:0 "Versprechen eines Wohlfahrtsstaates"</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IF(ISBLANK(A11),"",C11)</f>
-        <v> Reforms_welfare_state:0 "Promises of a welfare state"</v>
+        <v> Reforms_welfare_state:0 "Versprechen eines Wohlfahrtsstaates"</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,11 +591,11 @@
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v> PER_unstable_monarchy:0 "§OThe Headless Shahzadeh§!"</v>
+        <v> PER_unstable_monarchy:0 "§O§O Der kopflose Shahzadeh §!§! "</v>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">IF(ISBLANK(A12),"",C12)</f>
-        <v> PER_unstable_monarchy:0 "§OThe Headless Shahzadeh§!"</v>
+        <v> PER_unstable_monarchy:0 "§O§O Der kopflose Shahzadeh §!§! "</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,11 +607,11 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v> PER_unstable_monarchy_desc:0 "Having been invaded and occupied twice in a short period of time, by forces propagating three opposing ideologies, which all contrast significantly with the local ways, have left [From.GetName] a nation in confusion and lost. Groups representing all these different ideologies gained more and more influence in the country as it was dragged deeper into the whirlpool, without a captain on board. Even though the legitimate Shah, Reza Pahlavi, was reinstated as a consequence of the most recent invasion, the stablity his return would bring normally, is nullified by the fact that he is currently imprisoned by the Allies, at an unknown location. Until he returns to his realm and restablishes order, things won't get any better...\n§Y Rumor has it though that [PER.GetName]s new protectors have located his whereabouts...§Y "</v>
+        <v> PER_unstable_monarchy_desc:0 "Die zweimalige Invasion und Besetzung innerhalb kurzer Zeit durch Kräfte, die drei gegensätzliche Ideologien propagieren, die alle in erheblichem Gegensatz zu den örtlichen Gepflogenheiten stehen, haben [From.GetName] eine verwirrte und verlorene Nation hinterlassen. Gruppen, die all diese unterschiedlichen Ideologien vertraten, gewannen immer mehr Einfluss im Land, das immer tiefer in den Strudel gezogen wurde, ohne einen Kapitän an Bord zu haben. Obwohl der rechtmäßige Schah, Reza Pahlavi, als Folge der jüngsten Invasion wieder eingesetzt wurde, wird die Stabilität, die seine Rückkehr normalerweise bringen würde, durch die Tatsache zunichte gemacht, dass er derzeit von den Alliierten an einem unbekannten Ort gefangen gehalten wird. Solange er nicht in sein Reich zurückkehrt und die Ordnung wiederherstellt, werden die Dinge nicht besser werden...\n§Y§Y Gerüchten zufolge haben [PER.GetName]s neue Beschützer seinen Aufenthaltsort ausfindig gemacht...§Y§Y  "</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IF(ISBLANK(A13),"",C13)</f>
-        <v> PER_unstable_monarchy_desc:0 "Having been invaded and occupied twice in a short period of time, by forces propagating three opposing ideologies, which all contrast significantly with the local ways, have left [From.GetName] a nation in confusion and lost. Groups representing all these different ideologies gained more and more influence in the country as it was dragged deeper into the whirlpool, without a captain on board. Even though the legitimate Shah, Reza Pahlavi, was reinstated as a consequence of the most recent invasion, the stablity his return would bring normally, is nullified by the fact that he is currently imprisoned by the Allies, at an unknown location. Until he returns to his realm and restablishes order, things won't get any better...\n§Y Rumor has it though that [PER.GetName]s new protectors have located his whereabouts...§Y "</v>
+        <v> PER_unstable_monarchy_desc:0 "Die zweimalige Invasion und Besetzung innerhalb kurzer Zeit durch Kräfte, die drei gegensätzliche Ideologien propagieren, die alle in erheblichem Gegensatz zu den örtlichen Gepflogenheiten stehen, haben [From.GetName] eine verwirrte und verlorene Nation hinterlassen. Gruppen, die all diese unterschiedlichen Ideologien vertraten, gewannen immer mehr Einfluss im Land, das immer tiefer in den Strudel gezogen wurde, ohne einen Kapitän an Bord zu haben. Obwohl der rechtmäßige Schah, Reza Pahlavi, als Folge der jüngsten Invasion wieder eingesetzt wurde, wird die Stabilität, die seine Rückkehr normalerweise bringen würde, durch die Tatsache zunichte gemacht, dass er derzeit von den Alliierten an einem unbekannten Ort gefangen gehalten wird. Solange er nicht in sein Reich zurückkehrt und die Ordnung wiederherstellt, werden die Dinge nicht besser werden...\n§Y§Y Gerüchten zufolge haben [PER.GetName]s neue Beschützer seinen Aufenthaltsort ausfindig gemacht...§Y§Y  "</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,11 +623,11 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v> SAF_greyshirts_no_Smuts:0 "§ODie Natiosanle Rebellie§!"</v>
+        <v> SAF_greyshirts_no_Smuts:0 "§O§O Die Natiosanle Rebellie §!§! "</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IF(ISBLANK(A14),"",C14)</f>
-        <v> SAF_greyshirts_no_Smuts:0 "§ODie Natiosanle Rebellie§!"</v>
+        <v> SAF_greyshirts_no_Smuts:0 "§O§O Die Natiosanle Rebellie §!§! "</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,11 +639,11 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15 &amp;" " &amp;"""" &amp;B15 &amp;""""</f>
-        <v> SAF_greyshirts_no_Smuts_desc:0 "The maintainance of pro-British policy by the incumbent government, in spite of imminent defeat has led to §Oopen rebellion of anti-British groups in the country§!. It is only a matter of time before this escalates..."</v>
+        <v> SAF_greyshirts_no_Smuts_desc:0 "Die Beibehaltung der pro-britischen Politik durch die amtierende Regierung trotz der drohenden Niederlage hat zu §O§O offener Rebellion anti-britischer Gruppen im Land geführt §!§! . Es ist nur eine Frage der Zeit, bis dies eskaliert..."</v>
       </c>
       <c r="D15" s="1" t="str">
         <f aca="false">IF(ISBLANK(A15),"",C15)</f>
-        <v> SAF_greyshirts_no_Smuts_desc:0 "The maintainance of pro-British policy by the incumbent government, in spite of imminent defeat has led to §Oopen rebellion of anti-British groups in the country§!. It is only a matter of time before this escalates..."</v>
+        <v> SAF_greyshirts_no_Smuts_desc:0 "Die Beibehaltung der pro-britischen Politik durch die amtierende Regierung trotz der drohenden Niederlage hat zu §O§O offener Rebellion anti-britischer Gruppen im Land geführt §!§! . Es ist nur eine Frage der Zeit, bis dies eskaliert..."</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,11 +655,11 @@
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v> SAF_greyshirts_takeover:0 "§ONasionaalgesinde Magsgreep§!"</v>
+        <v> SAF_greyshirts_takeover:0 "§O§O Nasionaalgesinde Magsgreep §!§! "</v>
       </c>
       <c r="D16" s="1" t="str">
         <f aca="false">IF(ISBLANK(A16),"",C16)</f>
-        <v> SAF_greyshirts_takeover:0 "§ONasionaalgesinde Magsgreep§!"</v>
+        <v> SAF_greyshirts_takeover:0 "§O§O Nasionaalgesinde Magsgreep §!§! "</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,11 +671,11 @@
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v> SAF_greyshirts_takeover_desc:0 "Anti-British forces have succeeded in taking over power and are now consolidating their power, supported by their new \"allies\". The new regime, still unstable and facing resistance all across, is very reluctant to enter into any wars for the time being."</v>
+        <v> SAF_greyshirts_takeover_desc:0 "Den antibritischen Kräften ist es gelungen, die Macht zu übernehmen, und sie sind nun dabei, ihre Macht zu konsolidieren, unterstützt von ihren neuen "Verbündeten". Das neue Regime, das noch instabil ist und überall auf Widerstand stößt, ist vorerst sehr zurückhaltend, wenn es darum geht, Kriege zu führen."</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">IF(ISBLANK(A17),"",C17)</f>
-        <v> SAF_greyshirts_takeover_desc:0 "Anti-British forces have succeeded in taking over power and are now consolidating their power, supported by their new \"allies\". The new regime, still unstable and facing resistance all across, is very reluctant to enter into any wars for the time being."</v>
+        <v> SAF_greyshirts_takeover_desc:0 "Den antibritischen Kräften ist es gelungen, die Macht zu übernehmen, und sie sind nun dabei, ihre Macht zu konsolidieren, unterstützt von ihren neuen "Verbündeten". Das neue Regime, das noch instabil ist und überall auf Widerstand stößt, ist vorerst sehr zurückhaltend, wenn es darum geht, Kriege zu führen."</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,11 +687,11 @@
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v> SAF_strong_apartheid:0 "§OUnrestrained Apartheid Policies§!"</v>
+        <v> SAF_strong_apartheid:0 "§O§O Ungehemmte Apartheid-Politik §!§! "</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">IF(ISBLANK(A18),"",C18)</f>
-        <v> SAF_strong_apartheid:0 "§OUnrestrained Apartheid Policies§!"</v>
+        <v> SAF_strong_apartheid:0 "§O§O Ungehemmte Apartheid-Politik §!§! "</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,11 +703,11 @@
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19 &amp;" " &amp;"""" &amp;B19 &amp;""""</f>
-        <v> SAF_strong_apartheid_desc:0 "Now unrestrained by internal opposition and with full support of their new overlords, the [FROM.GetFascistParty] has been implementing a very extensive policy of §R\"Apartheid\"§!. While this makes for a big pool of cheap labour for the dominant minority, rebellion brews and will require increased state surpression to control. The constant threat in tandem with the emigration of British [FROM.GetAdjective]s, made the remaining white population very used to violence and handling modern weapons. [From.GetNameDef] thus fields a small but extremely elite military force."</v>
+        <v> SAF_strong_apartheid_desc:0 "Die [FROM.GetFascistParty] hat nun, unbehelligt von interner Opposition und mit voller Unterstützung ihrer neuen Machthaber, eine sehr umfassende Politik der §R§R \"Apartheid\" §!§! . Während dies ein großes Reservoir an billigen Arbeitskräften für die herrschende Minderheit schafft, braut sich eine Rebellion zusammen, die nur durch verstärkte staatliche Unterdrückung unter Kontrolle gebracht werden kann. Die ständige Bedrohung in Verbindung mit der Auswanderung der britischen [FROM.GetAdjective]s hat die verbleibende weiße Bevölkerung an Gewalt und den Umgang mit modernen Waffen gewöhnt. Die [FROM.GetNameDef] stellt daher eine kleine, aber äußerst elitäre Streitmacht auf."</v>
       </c>
       <c r="D19" s="1" t="str">
         <f aca="false">IF(ISBLANK(A19),"",C19)</f>
-        <v> SAF_strong_apartheid_desc:0 "Now unrestrained by internal opposition and with full support of their new overlords, the [FROM.GetFascistParty] has been implementing a very extensive policy of §R\"Apartheid\"§!. While this makes for a big pool of cheap labour for the dominant minority, rebellion brews and will require increased state surpression to control. The constant threat in tandem with the emigration of British [FROM.GetAdjective]s, made the remaining white population very used to violence and handling modern weapons. [From.GetNameDef] thus fields a small but extremely elite military force."</v>
+        <v> SAF_strong_apartheid_desc:0 "Die [FROM.GetFascistParty] hat nun, unbehelligt von interner Opposition und mit voller Unterstützung ihrer neuen Machthaber, eine sehr umfassende Politik der §R§R \"Apartheid\" §!§! . Während dies ein großes Reservoir an billigen Arbeitskräften für die herrschende Minderheit schafft, braut sich eine Rebellion zusammen, die nur durch verstärkte staatliche Unterdrückung unter Kontrolle gebracht werden kann. Die ständige Bedrohung in Verbindung mit der Auswanderung der britischen [FROM.GetAdjective]s hat die verbleibende weiße Bevölkerung an Gewalt und den Umgang mit modernen Waffen gewöhnt. Die [FROM.GetNameDef] stellt daher eine kleine, aber äußerst elitäre Streitmacht auf."</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,11 +719,11 @@
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v> RK_GER_support:0 "Support from the Motherland"</v>
+        <v> RK_GER_support:0 "Unterstützung aus dem Mutterland"</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">IF(ISBLANK(A20),"",C20)</f>
-        <v> RK_GER_support:0 "Support from the Motherland"</v>
+        <v> RK_GER_support:0 "Unterstützung aus dem Mutterland"</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,11 +735,11 @@
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v> RK_GER_support_desc:0 "We have received more military and administratitive personnel from the Motherland to help stabilize our rule and clear out any remaining resistance in our rightful Lebensraum."</v>
+        <v> RK_GER_support_desc:0 "Wir haben mehr militärisches und administratives Personal aus dem Mutterland erhalten, um unsere Herrschaft zu stabilisieren und jeden verbleibenden Widerstand in unserem rechtmäßigen Lebensraum zu beseitigen."</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">IF(ISBLANK(A21),"",C21)</f>
-        <v> RK_GER_support_desc:0 "We have received more military and administratitive personnel from the Motherland to help stabilize our rule and clear out any remaining resistance in our rightful Lebensraum."</v>
+        <v> RK_GER_support_desc:0 "Wir haben mehr militärisches und administratives Personal aus dem Mutterland erhalten, um unsere Herrschaft zu stabilisieren und jeden verbleibenden Widerstand in unserem rechtmäßigen Lebensraum zu beseitigen."</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,11 +751,11 @@
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v> SOV_desertion:0 "§RDesertion and emigration§!"</v>
+        <v> SOV_desertion:0 "§R§R Desertion und Auswanderung §!§! "</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">IF(ISBLANK(A22),"",C22)</f>
-        <v> SOV_desertion:0 "§RDesertion and emigration§!"</v>
+        <v> SOV_desertion:0 "§R§R Desertion und Auswanderung §!§! "</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,11 +767,11 @@
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v> SOV_desertion_desc:0 "As our situation remains dire, we suffer desertions from the army as well as loss of expertise and people, often returning to their newly independent home countries.\n§O As long as we have not reduced the effects of the Shattering of our Union or the German air raids, we will have a small amount of or army deserting every few months as breakaway states launch campaigns to attract them to their side."</v>
+        <v> SOV_desertion_desc:0 "Da unsere Lage nach wie vor katastrophal ist, leiden wir unter Desertionen aus der Armee sowie unter dem Verlust von Fachwissen und Menschen, die oft in ihre neuen unabhängigen Heimatländer zurückkehren.\n§O§O Solange wir die Auswirkungen der Zerschlagung unserer Union oder der deutschen Luftangriffe nicht gemildert haben, wird alle paar Monate ein kleiner Teil unserer Armee desertieren, da abtrünnige Staaten Kampagnen starten, um sie auf ihre Seite zu ziehen."</v>
       </c>
       <c r="D23" s="1" t="str">
         <f aca="false">IF(ISBLANK(A23),"",C23)</f>
-        <v> SOV_desertion_desc:0 "As our situation remains dire, we suffer desertions from the army as well as loss of expertise and people, often returning to their newly independent home countries.\n§O As long as we have not reduced the effects of the Shattering of our Union or the German air raids, we will have a small amount of or army deserting every few months as breakaway states launch campaigns to attract them to their side."</v>
+        <v> SOV_desertion_desc:0 "Da unsere Lage nach wie vor katastrophal ist, leiden wir unter Desertionen aus der Armee sowie unter dem Verlust von Fachwissen und Menschen, die oft in ihre neuen unabhängigen Heimatländer zurückkehren.\n§O§O Solange wir die Auswirkungen der Zerschlagung unserer Union oder der deutschen Luftangriffe nicht gemildert haben, wird alle paar Monate ein kleiner Teil unserer Armee desertieren, da abtrünnige Staaten Kampagnen starten, um sie auf ihre Seite zu ziehen."</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,11 +783,11 @@
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v> neutrality_civil_war_postWWII:0 "Isolated Civil War"</v>
+        <v> neutrality_civil_war_postWWII:0 "Isolierter Bürgerkrieg"</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">IF(ISBLANK(A24),"",C24)</f>
-        <v> neutrality_civil_war_postWWII:0 "Isolated Civil War"</v>
+        <v> neutrality_civil_war_postWWII:0 "Isolierter Bürgerkrieg"</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,11 +799,11 @@
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v> neutrality_civil_war_postWWII_desc:0 "As the world has been engulfed in a new world war, the warring parties avoid getting involved in internal conflicts unnecessarily"</v>
+        <v> neutrality_civil_war_postWWII_desc:0 "Da die Welt in einen neuen Weltkrieg verwickelt ist, vermeiden es die Kriegsparteien, sich unnötig in interne Konflikte einzumischen."</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">IF(ISBLANK(A25),"",C25)</f>
-        <v> neutrality_civil_war_postWWII_desc:0 "As the world has been engulfed in a new world war, the warring parties avoid getting involved in internal conflicts unnecessarily"</v>
+        <v> neutrality_civil_war_postWWII_desc:0 "Da die Welt in einen neuen Weltkrieg verwickelt ist, vermeiden es die Kriegsparteien, sich unnötig in interne Konflikte einzumischen."</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,11 +815,11 @@
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v> no_master_regime:0 "Isolated Puppet"</v>
+        <v> no_master_regime:0 "Isolierte Marionette"</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">IF(ISBLANK(A26),"",C26)</f>
-        <v> no_master_regime:0 "Isolated Puppet"</v>
+        <v> no_master_regime:0 "Isolierte Marionette"</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,4649 +831,2793 @@
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v> no_master_regime_desc:0 "With the capitulation of our political benefactors, our state aparatus &amp; army is quickly collapsing. Not only our enemies, but our own people too seem to regard us as a mere puppet regime!"</v>
+        <v> no_master_regime_desc:0 "Mit der Kapitulation unserer politischen Wohltäter brechen unser Staatsapparat und unsere Armee schnell zusammen. Nicht nur unsere Feinde, sondern auch unser eigenes Volk scheint uns nur noch als Marionettenregime zu betrachten!"</v>
       </c>
       <c r="D27" s="1" t="str">
         <f aca="false">IF(ISBLANK(A27),"",C27)</f>
-        <v> no_master_regime_desc:0 "With the capitulation of our political benefactors, our state aparatus &amp; army is quickly collapsing. Not only our enemies, but our own people too seem to regard us as a mere puppet regime!"</v>
+        <v> no_master_regime_desc:0 "Mit der Kapitulation unserer politischen Wohltäter brechen unser Staatsapparat und unsere Armee schnell zusammen. Nicht nur unsere Feinde, sondern auch unser eigenes Volk scheint uns nur noch als Marionettenregime zu betrachten!"</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1" t="str">
-        <f aca="false">A28 &amp;" " &amp;"""" &amp;B28 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D28" s="1" t="str">
         <f aca="false">IF(ISBLANK(A28),"",C28)</f>
         <v/>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1" t="str">
-        <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D29" s="1" t="str">
         <f aca="false">IF(ISBLANK(A29),"",C29)</f>
         <v/>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1" t="str">
-        <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
         <v/>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1" t="str">
-        <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D31" s="1" t="str">
         <f aca="false">IF(ISBLANK(A31),"",C31)</f>
         <v/>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1" t="str">
-        <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D32" s="1" t="str">
         <f aca="false">IF(ISBLANK(A32),"",C32)</f>
         <v/>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1" t="str">
-        <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D33" s="1" t="str">
         <f aca="false">IF(ISBLANK(A33),"",C33)</f>
         <v/>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1" t="str">
-        <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D34" s="1" t="str">
         <f aca="false">IF(ISBLANK(A34),"",C34)</f>
         <v/>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1" t="str">
-        <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D35" s="1" t="str">
         <f aca="false">IF(ISBLANK(A35),"",C35)</f>
         <v/>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1" t="str">
-        <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D36" s="1" t="str">
         <f aca="false">IF(ISBLANK(A36),"",C36)</f>
         <v/>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1" t="str">
-        <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D37" s="1" t="str">
         <f aca="false">IF(ISBLANK(A37),"",C37)</f>
         <v/>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1" t="str">
-        <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D38" s="1" t="str">
         <f aca="false">IF(ISBLANK(A38),"",C38)</f>
         <v/>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1" t="str">
-        <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IF(ISBLANK(A39),"",C39)</f>
         <v/>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1" t="str">
-        <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D40" s="1" t="str">
         <f aca="false">IF(ISBLANK(A40),"",C40)</f>
         <v/>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1" t="str">
-        <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IF(ISBLANK(A41),"",C41)</f>
         <v/>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1" t="str">
-        <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D42" s="1" t="str">
         <f aca="false">IF(ISBLANK(A42),"",C42)</f>
         <v/>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1" t="str">
-        <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
         <v/>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1" t="str">
-        <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IF(ISBLANK(A44),"",C44)</f>
         <v/>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1" t="str">
-        <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1" t="str">
-        <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D46" s="1" t="str">
         <f aca="false">IF(ISBLANK(A46),"",C46)</f>
         <v/>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1" t="str">
-        <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
         <v/>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1" t="str">
-        <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
         <v/>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1" t="str">
-        <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
         <v/>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1" t="str">
-        <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
         <v/>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1" t="str">
-        <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
         <v/>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1" t="str">
-        <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
         <v/>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1" t="str">
-        <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
         <v/>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1" t="str">
-        <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
         <v/>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1" t="str">
-        <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
         <v/>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1" t="str">
-        <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D56" s="1" t="str">
         <f aca="false">IF(ISBLANK(A56),"",C56)</f>
         <v/>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1" t="str">
-        <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D57" s="1" t="str">
         <f aca="false">IF(ISBLANK(A57),"",C57)</f>
         <v/>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1" t="str">
-        <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
         <v/>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1" t="str">
-        <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
         <v/>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1" t="str">
-        <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
         <v/>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1" t="str">
-        <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
         <v/>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1" t="str">
-        <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
         <v/>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1" t="str">
-        <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
         <v/>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1" t="str">
-        <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
         <v/>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1" t="str">
-        <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
         <v/>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1" t="str">
-        <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
         <v/>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1" t="str">
-        <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
         <v/>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1" t="str">
-        <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
         <v/>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1" t="str">
-        <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
         <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1" t="str">
-        <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
         <v/>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="1" t="str">
-        <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
         <v/>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="1" t="str">
-        <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
         <v/>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="1" t="str">
-        <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D73" s="1" t="str">
         <f aca="false">IF(ISBLANK(A73),"",C73)</f>
         <v/>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="1" t="str">
-        <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
         <v/>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="1" t="str">
-        <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
         <v/>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="1" t="str">
-        <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
         <v/>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="1" t="str">
-        <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D77" s="1" t="str">
         <f aca="false">IF(ISBLANK(A77),"",C77)</f>
         <v/>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="1" t="str">
-        <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D78" s="1" t="str">
         <f aca="false">IF(ISBLANK(A78),"",C78)</f>
         <v/>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="1" t="str">
-        <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
         <v/>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="1" t="str">
-        <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
         <v/>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="1" t="str">
-        <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
         <v/>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="1" t="str">
-        <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
         <v/>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="1" t="str">
-        <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
         <v/>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="1" t="str">
-        <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
         <v/>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="1" t="str">
-        <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D85" s="1" t="str">
         <f aca="false">IF(ISBLANK(A85),"",C85)</f>
         <v/>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="1" t="str">
-        <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D86" s="1" t="str">
         <f aca="false">IF(ISBLANK(A86),"",C86)</f>
         <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="1" t="str">
-        <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D87" s="1" t="str">
         <f aca="false">IF(ISBLANK(A87),"",C87)</f>
         <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="1" t="str">
-        <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
         <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="1" t="str">
-        <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
         <v/>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="1" t="str">
-        <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
         <v/>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="1" t="str">
-        <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D91" s="1" t="str">
         <f aca="false">IF(ISBLANK(A91),"",C91)</f>
         <v/>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="1" t="str">
-        <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
         <v/>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="1" t="str">
-        <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
         <v/>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="1" t="str">
-        <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D94" s="1" t="str">
         <f aca="false">IF(ISBLANK(A94),"",C94)</f>
         <v/>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="1" t="str">
-        <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
         <v/>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="1" t="str">
-        <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="1" t="str">
-        <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="1" t="str">
-        <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="1" t="str">
-        <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="1" t="str">
-        <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="1" t="str">
-        <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="1" t="str">
-        <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="1" t="str">
-        <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="1" t="str">
-        <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="1" t="str">
-        <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="1" t="str">
-        <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="1" t="str">
-        <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="1" t="str">
-        <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
         <v/>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="1" t="str">
-        <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
         <v/>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="1" t="str">
-        <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
         <v/>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="1" t="str">
-        <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
         <v/>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="1" t="str">
-        <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
         <v/>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="1" t="str">
-        <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
         <v/>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="1" t="str">
-        <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
         <v/>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="1" t="str">
-        <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
         <v/>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="1" t="str">
-        <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
         <v/>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="1" t="str">
-        <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
         <v/>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="1" t="str">
-        <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
         <v/>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="1" t="str">
-        <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
         <v/>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="1" t="str">
-        <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
         <v/>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="1" t="str">
-        <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
         <v/>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="1" t="str">
-        <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
         <v/>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="1" t="str">
-        <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="1" t="str">
-        <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="1" t="str">
-        <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D125" s="1" t="str">
         <f aca="false">IF(ISBLANK(A125),"",C125)</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="1" t="str">
-        <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D126" s="1" t="str">
         <f aca="false">IF(ISBLANK(A126),"",C126)</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="1" t="str">
-        <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="1" t="str">
-        <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="1" t="str">
-        <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A129),"",C129)</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="1" t="str">
-        <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="1" t="str">
-        <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D131" s="1" t="str">
         <f aca="false">IF(ISBLANK(A131),"",C131)</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="1" t="str">
-        <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="1" t="str">
-        <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="1" t="str">
-        <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="1" t="str">
-        <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="1" t="str">
-        <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="1" t="str">
-        <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="1" t="str">
-        <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="1" t="str">
-        <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="1" t="str">
-        <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="1" t="str">
-        <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="1" t="str">
-        <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A142),"",C142)</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="1" t="str">
-        <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="1" t="str">
-        <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D144" s="1" t="str">
         <f aca="false">IF(ISBLANK(A144),"",C144)</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="1" t="str">
-        <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D145" s="1" t="str">
         <f aca="false">IF(ISBLANK(A145),"",C145)</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="1" t="str">
-        <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D146" s="1" t="str">
         <f aca="false">IF(ISBLANK(A146),"",C146)</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="1" t="str">
-        <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D147" s="1" t="str">
         <f aca="false">IF(ISBLANK(A147),"",C147)</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="1" t="str">
-        <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A148),"",C148)</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="1" t="str">
-        <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="1" t="str">
-        <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A150),"",C150)</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="1" t="str">
-        <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D151" s="1" t="str">
         <f aca="false">IF(ISBLANK(A151),"",C151)</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="1" t="str">
-        <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="1" t="str">
-        <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A153),"",C153)</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="1" t="str">
-        <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="1" t="str">
-        <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="1" t="str">
-        <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="1" t="str">
-        <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="1" t="str">
-        <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="1" t="str">
-        <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="1" t="str">
-        <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A160),"",C160)</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="1" t="str">
-        <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A161),"",C161)</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="1" t="str">
-        <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="1" t="str">
-        <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="1" t="str">
-        <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="1" t="str">
-        <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="1" t="str">
-        <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="1" t="str">
-        <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="1" t="str">
-        <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="1" t="str">
-        <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="1" t="str">
-        <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="1" t="str">
-        <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="1" t="str">
-        <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="1" t="str">
-        <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="1" t="str">
-        <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="1" t="str">
-        <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="1" t="str">
-        <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="1" t="str">
-        <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="1" t="str">
-        <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="1" t="str">
-        <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="1" t="str">
-        <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="1" t="str">
-        <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="1" t="str">
-        <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="1" t="str">
-        <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="1" t="str">
-        <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="1" t="str">
-        <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="1" t="str">
-        <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="1" t="str">
-        <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="1" t="str">
-        <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="1" t="str">
-        <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="1" t="str">
-        <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="1" t="str">
-        <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="1" t="str">
-        <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="1" t="str">
-        <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="1" t="str">
-        <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="1" t="str">
-        <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="1" t="str">
-        <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="1" t="str">
-        <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="1" t="str">
-        <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="1" t="str">
-        <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D199" s="1" t="str">
         <f aca="false">IF(ISBLANK(A199),"",C199)</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="1" t="str">
-        <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A200),"",C200)</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="1" t="str">
-        <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A201),"",C201)</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="1" t="str">
-        <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A202),"",C202)</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="1" t="str">
-        <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="1" t="str">
-        <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D204" s="1" t="str">
         <f aca="false">IF(ISBLANK(A204),"",C204)</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="1" t="str">
-        <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A205),"",C205)</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="1" t="str">
-        <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="1" t="str">
-        <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="1" t="str">
-        <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A208),"",C208)</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="1" t="str">
-        <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="1" t="str">
-        <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="1" t="str">
-        <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="1" t="str">
-        <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A212),"",C212)</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="1" t="str">
-        <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A213),"",C213)</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="1" t="str">
-        <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A214),"",C214)</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="1" t="str">
-        <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="1" t="str">
-        <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A216),"",C216)</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="1" t="str">
-        <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D217" s="1" t="str">
         <f aca="false">IF(ISBLANK(A217),"",C217)</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="1" t="str">
-        <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="1" t="str">
-        <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D219" s="1" t="str">
         <f aca="false">IF(ISBLANK(A219),"",C219)</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="1" t="str">
-        <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D220" s="1" t="str">
         <f aca="false">IF(ISBLANK(A220),"",C220)</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="1" t="str">
-        <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D221" s="1" t="str">
         <f aca="false">IF(ISBLANK(A221),"",C221)</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="1" t="str">
-        <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D222" s="1" t="str">
         <f aca="false">IF(ISBLANK(A222),"",C222)</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="1" t="str">
-        <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D223" s="1" t="str">
         <f aca="false">IF(ISBLANK(A223),"",C223)</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="1" t="str">
-        <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D224" s="1" t="str">
         <f aca="false">IF(ISBLANK(A224),"",C224)</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="1" t="str">
-        <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="1" t="str">
-        <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="1" t="str">
-        <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D227" s="1" t="str">
         <f aca="false">IF(ISBLANK(A227),"",C227)</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="1" t="str">
-        <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="1" t="str">
-        <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A229),"",C229)</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="1" t="str">
-        <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="1" t="str">
-        <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="1" t="str">
-        <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="1" t="str">
-        <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="1" t="str">
-        <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="1" t="str">
-        <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="1" t="str">
-        <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="1" t="str">
-        <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="1" t="str">
-        <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D238" s="1" t="str">
         <f aca="false">IF(ISBLANK(A238),"",C238)</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="1" t="str">
-        <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="1" t="str">
-        <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="1" t="str">
-        <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="1" t="str">
-        <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="1" t="str">
-        <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="1" t="str">
-        <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="1" t="str">
-        <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="1" t="str">
-        <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="1" t="str">
-        <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="1" t="str">
-        <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="1" t="str">
-        <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="1" t="str">
-        <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="1" t="str">
-        <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="1" t="str">
-        <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="1" t="str">
-        <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="1" t="str">
-        <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="1" t="str">
-        <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="1" t="str">
-        <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="1" t="str">
-        <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="1" t="str">
-        <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="1" t="str">
-        <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="1" t="str">
-        <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="1" t="str">
-        <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="1" t="str">
-        <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="1" t="str">
-        <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="1" t="str">
-        <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="1" t="str">
-        <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D265" s="1" t="str">
         <f aca="false">IF(ISBLANK(A265),"",C265)</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="1" t="str">
-        <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D266" s="1" t="str">
         <f aca="false">IF(ISBLANK(A266),"",C266)</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="1" t="str">
-        <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="1" t="str">
-        <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="1" t="str">
-        <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="1" t="str">
-        <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D270" s="1" t="str">
         <f aca="false">IF(ISBLANK(A270),"",C270)</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="1" t="str">
-        <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="1" t="str">
-        <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D272" s="1" t="str">
         <f aca="false">IF(ISBLANK(A272),"",C272)</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="1" t="str">
-        <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D273" s="1" t="str">
         <f aca="false">IF(ISBLANK(A273),"",C273)</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="1" t="str">
-        <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="1" t="str">
-        <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D275" s="1" t="str">
         <f aca="false">IF(ISBLANK(A275),"",C275)</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="1" t="str">
-        <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="1" t="str">
-        <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="1" t="str">
-        <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="1" t="str">
-        <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="1" t="str">
-        <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
         <v/>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="3"/>
-      <c r="C281" s="1" t="str">
-        <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
-        <v>""</v>
-      </c>
+      <c r="B281" s="2"/>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="1" t="str">
-        <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D282" s="1" t="str">
         <f aca="false">IF(ISBLANK(A282),"",C282)</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="1" t="str">
-        <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="1" t="str">
-        <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="1" t="str">
-        <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="1" t="str">
-        <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="1" t="str">
-        <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D287" s="1" t="str">
         <f aca="false">IF(ISBLANK(A287),"",C287)</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="1" t="str">
-        <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D288" s="1" t="str">
         <f aca="false">IF(ISBLANK(A288),"",C288)</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="1" t="str">
-        <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="1" t="str">
-        <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="1" t="str">
-        <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D291" s="1" t="str">
         <f aca="false">IF(ISBLANK(A291),"",C291)</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="1" t="str">
-        <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="1" t="str">
-        <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D293" s="1" t="str">
         <f aca="false">IF(ISBLANK(A293),"",C293)</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="1" t="str">
-        <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="1" t="str">
-        <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="1" t="str">
-        <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="1" t="str">
-        <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="1" t="str">
-        <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="1" t="str">
-        <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D299" s="1" t="str">
         <f aca="false">IF(ISBLANK(A299),"",C299)</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="1" t="str">
-        <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="1" t="str">
-        <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="1" t="str">
-        <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="1" t="str">
-        <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="1" t="str">
-        <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="1" t="str">
-        <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="1" t="str">
-        <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D306" s="1" t="str">
         <f aca="false">IF(ISBLANK(A306),"",C306)</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="1" t="str">
-        <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D307" s="1" t="str">
         <f aca="false">IF(ISBLANK(A307),"",C307)</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="1" t="str">
-        <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D308" s="1" t="str">
         <f aca="false">IF(ISBLANK(A308),"",C308)</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="1" t="str">
-        <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="1" t="str">
-        <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="1" t="str">
-        <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="1" t="str">
-        <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D312" s="1" t="str">
         <f aca="false">IF(ISBLANK(A312),"",C312)</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="1" t="str">
-        <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="1" t="str">
-        <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="1" t="str">
-        <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D315" s="1" t="str">
         <f aca="false">IF(ISBLANK(A315),"",C315)</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="1" t="str">
-        <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D316" s="1" t="str">
         <f aca="false">IF(ISBLANK(A316),"",C316)</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="1" t="str">
-        <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D317" s="1" t="str">
         <f aca="false">IF(ISBLANK(A317),"",C317)</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="1" t="str">
-        <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="1" t="str">
-        <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="1" t="str">
-        <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D320" s="1" t="str">
         <f aca="false">IF(ISBLANK(A320),"",C320)</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="1" t="str">
-        <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="1" t="str">
-        <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="1" t="str">
-        <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="1" t="str">
-        <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="1" t="str">
-        <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="1" t="str">
-        <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="1" t="str">
-        <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D327" s="1" t="str">
         <f aca="false">IF(ISBLANK(A327),"",C327)</f>
         <v/>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="1" t="str">
-        <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
         <v/>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="1" t="str">
-        <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
         <v/>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="1" t="str">
-        <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
         <v/>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="1" t="str">
-        <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
         <v/>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="1" t="str">
-        <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
         <v/>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="1" t="str">
-        <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
         <v/>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="1" t="str">
-        <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
         <v/>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="1" t="str">
-        <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
         <v/>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="1" t="str">
-        <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
         <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="1" t="str">
-        <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D337" s="1" t="str">
         <f aca="false">IF(ISBLANK(A337),"",C337)</f>
         <v/>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="1" t="str">
-        <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
         <v/>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="1" t="str">
-        <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D339" s="1" t="str">
         <f aca="false">IF(ISBLANK(A339),"",C339)</f>
         <v/>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="1" t="str">
-        <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
         <v/>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="1" t="str">
-        <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
         <v/>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="1" t="str">
-        <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
         <v/>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="1" t="str">
-        <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
         <v/>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="1" t="str">
-        <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
         <v/>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="1" t="str">
-        <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
         <v/>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="1" t="str">
-        <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
         <v/>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="1" t="str">
-        <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D347" s="1" t="str">
         <f aca="false">IF(ISBLANK(A347),"",C347)</f>
         <v/>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="1" t="str">
-        <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
         <v/>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="1" t="str">
-        <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
         <v/>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="1" t="str">
-        <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
         <v/>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="1" t="str">
-        <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
         <v/>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="1" t="str">
-        <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
         <v/>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="1" t="str">
-        <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
         <v/>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="1" t="str">
-        <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
         <v/>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="1" t="str">
-        <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
         <v/>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="1" t="str">
-        <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
         <v/>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="1" t="str">
-        <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
         <v/>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="1" t="str">
-        <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
         <v/>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="1" t="str">
-        <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
         <v/>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="1" t="str">
-        <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
         <v/>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="1" t="str">
-        <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
         <v/>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="1" t="str">
-        <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
         <v/>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="1" t="str">
-        <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D363" s="1" t="str">
         <f aca="false">IF(ISBLANK(A363),"",C363)</f>
         <v/>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="1" t="str">
-        <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D364" s="1" t="str">
         <f aca="false">IF(ISBLANK(A364),"",C364)</f>
         <v/>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="1" t="str">
-        <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
         <v/>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="1" t="str">
-        <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
         <v/>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="1" t="str">
-        <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
         <v/>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="1" t="str">
-        <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D368" s="1" t="str">
         <f aca="false">IF(ISBLANK(A368),"",C368)</f>
         <v/>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="1" t="str">
-        <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D369" s="1" t="str">
         <f aca="false">IF(ISBLANK(A369),"",C369)</f>
         <v/>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="1" t="str">
-        <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D370" s="1" t="str">
         <f aca="false">IF(ISBLANK(A370),"",C370)</f>
         <v/>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="1" t="str">
-        <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D371" s="1" t="str">
         <f aca="false">IF(ISBLANK(A371),"",C371)</f>
         <v/>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="1" t="str">
-        <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D372" s="1" t="str">
         <f aca="false">IF(ISBLANK(A372),"",C372)</f>
         <v/>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="1" t="str">
-        <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
         <v/>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="1" t="str">
-        <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
         <v/>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="1" t="str">
-        <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
         <v/>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="1" t="str">
-        <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
         <v/>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="1" t="str">
-        <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
         <v/>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="1" t="str">
-        <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
         <v/>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="1" t="str">
-        <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
         <v/>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="1" t="str">
-        <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
         <v/>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="1" t="str">
-        <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
         <v/>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="1" t="str">
-        <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
         <v/>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="1" t="str">
-        <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D383" s="1" t="str">
         <f aca="false">IF(ISBLANK(A383),"",C383)</f>
         <v/>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="1" t="str">
-        <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
         <v/>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="1" t="str">
-        <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
         <v/>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="1" t="str">
-        <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
         <v/>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="1" t="str">
-        <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D387" s="1" t="str">
         <f aca="false">IF(ISBLANK(A387),"",C387)</f>
         <v/>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="1" t="str">
-        <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D388" s="1" t="str">
         <f aca="false">IF(ISBLANK(A388),"",C388)</f>
         <v/>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="1" t="str">
-        <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D389" s="1" t="str">
         <f aca="false">IF(ISBLANK(A389),"",C389)</f>
         <v/>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="1" t="str">
-        <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
         <v/>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="1" t="str">
-        <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D391" s="1" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
         <v/>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="1" t="str">
-        <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
         <v/>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="1" t="str">
-        <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D393" s="1" t="str">
         <f aca="false">IF(ISBLANK(A393),"",C393)</f>
         <v/>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="1" t="str">
-        <f aca="false">A394 &amp;" " &amp;"""" &amp;B394 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D394" s="1" t="str">
         <f aca="false">IF(ISBLANK(A394),"",C394)</f>
         <v/>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="1" t="str">
-        <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D395" s="1" t="str">
         <f aca="false">IF(ISBLANK(A395),"",C395)</f>
         <v/>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="1" t="str">
-        <f aca="false">A396 &amp;" " &amp;"""" &amp;B396 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D396" s="1" t="str">
         <f aca="false">IF(ISBLANK(A396),"",C396)</f>
         <v/>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="1" t="str">
-        <f aca="false">A397 &amp;" " &amp;"""" &amp;B397 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D397" s="1" t="str">
         <f aca="false">IF(ISBLANK(A397),"",C397)</f>
         <v/>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="1" t="str">
-        <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D398" s="1" t="str">
         <f aca="false">IF(ISBLANK(A398),"",C398)</f>
         <v/>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="1" t="str">
-        <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D399" s="1" t="str">
         <f aca="false">IF(ISBLANK(A399),"",C399)</f>
         <v/>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="1" t="str">
-        <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D400" s="1" t="str">
         <f aca="false">IF(ISBLANK(A400),"",C400)</f>
         <v/>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="1" t="str">
-        <f aca="false">A401 &amp;" " &amp;"""" &amp;B401 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D401" s="1" t="str">
         <f aca="false">IF(ISBLANK(A401),"",C401)</f>
         <v/>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="1" t="str">
-        <f aca="false">A402 &amp;" " &amp;"""" &amp;B402 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D402" s="1" t="str">
         <f aca="false">IF(ISBLANK(A402),"",C402)</f>
         <v/>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="1" t="str">
-        <f aca="false">A403 &amp;" " &amp;"""" &amp;B403 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D403" s="1" t="str">
         <f aca="false">IF(ISBLANK(A403),"",C403)</f>
         <v/>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="1" t="str">
-        <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D404" s="1" t="str">
         <f aca="false">IF(ISBLANK(A404),"",C404)</f>
         <v/>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="1" t="str">
-        <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D405" s="1" t="str">
         <f aca="false">IF(ISBLANK(A405),"",C405)</f>
         <v/>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="1" t="str">
-        <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D406" s="1" t="str">
         <f aca="false">IF(ISBLANK(A406),"",C406)</f>
         <v/>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="1" t="str">
-        <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
         <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="1" t="str">
-        <f aca="false">A408 &amp;" " &amp;"""" &amp;B408 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D408" s="1" t="str">
         <f aca="false">IF(ISBLANK(A408),"",C408)</f>
         <v/>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="1" t="str">
-        <f aca="false">A409 &amp;" " &amp;"""" &amp;B409 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D409" s="1" t="str">
         <f aca="false">IF(ISBLANK(A409),"",C409)</f>
         <v/>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="1" t="str">
-        <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D410" s="1" t="str">
         <f aca="false">IF(ISBLANK(A410),"",C410)</f>
         <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="1" t="str">
-        <f aca="false">A411 &amp;" " &amp;"""" &amp;B411 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D411" s="1" t="str">
         <f aca="false">IF(ISBLANK(A411),"",C411)</f>
         <v/>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="1" t="str">
-        <f aca="false">A412 &amp;" " &amp;"""" &amp;B412 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D412" s="1" t="str">
         <f aca="false">IF(ISBLANK(A412),"",C412)</f>
         <v/>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="1" t="str">
-        <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D413" s="1" t="str">
         <f aca="false">IF(ISBLANK(A413),"",C413)</f>
         <v/>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="1" t="str">
-        <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D414" s="1" t="str">
         <f aca="false">IF(ISBLANK(A414),"",C414)</f>
         <v/>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="1" t="str">
-        <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D415" s="1" t="str">
         <f aca="false">IF(ISBLANK(A415),"",C415)</f>
         <v/>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="1" t="str">
-        <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D416" s="1" t="str">
         <f aca="false">IF(ISBLANK(A416),"",C416)</f>
         <v/>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="1" t="str">
-        <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D417" s="1" t="str">
         <f aca="false">IF(ISBLANK(A417),"",C417)</f>
         <v/>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="1" t="str">
-        <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D418" s="1" t="str">
         <f aca="false">IF(ISBLANK(A418),"",C418)</f>
         <v/>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="1" t="str">
-        <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D419" s="1" t="str">
         <f aca="false">IF(ISBLANK(A419),"",C419)</f>
         <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="1" t="str">
-        <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
         <v/>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="1" t="str">
-        <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D421" s="1" t="str">
         <f aca="false">IF(ISBLANK(A421),"",C421)</f>
         <v/>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="1" t="str">
-        <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D422" s="1" t="str">
         <f aca="false">IF(ISBLANK(A422),"",C422)</f>
         <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="1" t="str">
-        <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D423" s="1" t="str">
         <f aca="false">IF(ISBLANK(A423),"",C423)</f>
         <v/>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="1" t="str">
-        <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D424" s="1" t="str">
         <f aca="false">IF(ISBLANK(A424),"",C424)</f>
         <v/>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="1" t="str">
-        <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D425" s="1" t="str">
         <f aca="false">IF(ISBLANK(A425),"",C425)</f>
         <v/>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="1" t="str">
-        <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D426" s="1" t="str">
         <f aca="false">IF(ISBLANK(A426),"",C426)</f>
         <v/>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="1" t="str">
-        <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D427" s="1" t="str">
         <f aca="false">IF(ISBLANK(A427),"",C427)</f>
         <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="1" t="str">
-        <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D428" s="1" t="str">
         <f aca="false">IF(ISBLANK(A428),"",C428)</f>
         <v/>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="1" t="str">
-        <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D429" s="1" t="str">
         <f aca="false">IF(ISBLANK(A429),"",C429)</f>
         <v/>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="1" t="str">
-        <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D430" s="1" t="str">
         <f aca="false">IF(ISBLANK(A430),"",C430)</f>
         <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="1" t="str">
-        <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D431" s="1" t="str">
         <f aca="false">IF(ISBLANK(A431),"",C431)</f>
         <v/>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="1" t="str">
-        <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D432" s="1" t="str">
         <f aca="false">IF(ISBLANK(A432),"",C432)</f>
         <v/>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="1" t="str">
-        <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D433" s="1" t="str">
         <f aca="false">IF(ISBLANK(A433),"",C433)</f>
         <v/>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="1" t="str">
-        <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D434" s="1" t="str">
         <f aca="false">IF(ISBLANK(A434),"",C434)</f>
         <v/>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="1" t="str">
-        <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D435" s="1" t="str">
         <f aca="false">IF(ISBLANK(A435),"",C435)</f>
         <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="1" t="str">
-        <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D436" s="1" t="str">
         <f aca="false">IF(ISBLANK(A436),"",C436)</f>
         <v/>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="1" t="str">
-        <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D437" s="1" t="str">
         <f aca="false">IF(ISBLANK(A437),"",C437)</f>
         <v/>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1" t="str">
-        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1" t="str">
-        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1" t="str">
-        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1" t="str">
-        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
         <v/>
